--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29318"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFAB8ED9-1BC6-44E1-A66F-92F4238171AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
+    <sheet name="tc002" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,26 +27,413 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Epic name</t>
+  </si>
+  <si>
+    <t>feature name</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Module Id</t>
+  </si>
+  <si>
+    <t>STG- PulseCodeOnAzureCloud</t>
+  </si>
+  <si>
+    <t>Epic Mohit</t>
+  </si>
+  <si>
+    <t>Feature Mohit</t>
+  </si>
+  <si>
+    <t>MD-307</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>hi,this is description</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <color rgb="FF101828"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -57,24 +441,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -123,7 +794,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -156,26 +827,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -208,23 +862,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,25 +1023,112 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="23.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="17.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="18.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="16.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="24.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\TestNext Release 2\testData\requirementTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B3472E-84A0-4E2B-A40B-A9C02140D7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F794CA2-34CC-4146-850F-966E540A9416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Project Name</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>Epic</t>
+  </si>
+  <si>
+    <t>Rq</t>
+  </si>
+  <si>
+    <t>RQ-463</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>Must have</t>
+  </si>
+  <si>
+    <t>pri1</t>
+  </si>
+  <si>
+    <t>Should have</t>
   </si>
 </sst>
 </file>
@@ -503,32 +521,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018D6FBF-87E3-4965-9926-26DA875C70B8}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="28.08984375" customWidth="1"/>
     <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\TestNext Release 2\testData\requirementTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F794CA2-34CC-4146-850F-966E540A9416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFF4EAC-1377-4027-8ABF-48B991EF2176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
     <sheet name="tc002" sheetId="3" r:id="rId2"/>
     <sheet name="tc011" sheetId="4" r:id="rId3"/>
+    <sheet name="tc012" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Project Name</t>
   </si>
@@ -523,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018D6FBF-87E3-4965-9926-26DA875C70B8}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -572,4 +573,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A98A44B-A0FA-45FE-9B5B-68B8C5758F74}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29318"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFAB8ED9-1BC6-44E1-A66F-92F4238171AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SohailShaikhFaiyaz\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\requirementTabTestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
+    <sheet name="tc005" sheetId="2" r:id="rId2"/>
+    <sheet name="tc006" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>STG- PulseCodeOnAzureCloud</t>
+  </si>
+  <si>
+    <t>Epic name</t>
+  </si>
+  <si>
+    <t>Epic 039</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -50,13 +56,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -69,14 +69,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -85,10 +77,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -257,6 +249,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -283,24 +276,25 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -361,50 +355,81 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29318"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFAB8ED9-1BC6-44E1-A66F-92F4238171AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
+    <sheet name="tc009" sheetId="2" r:id="rId2"/>
+    <sheet name="tc010" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,26 +28,400 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>reqId</t>
+  </si>
+  <si>
+    <t>STG- PulseCodeOnAzureCloud</t>
+  </si>
+  <si>
+    <t>Epic 039</t>
+  </si>
+  <si>
+    <t>feature 039</t>
+  </si>
+  <si>
+    <t>RQ-24</t>
+  </si>
+  <si>
+    <t>moduleId</t>
+  </si>
+  <si>
+    <t>RQF 12</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -57,24 +429,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -123,7 +781,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -156,26 +814,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -208,23 +849,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,25 +1010,126 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="30.4166666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="13.0833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="31.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.4166666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -1,29 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\TestNext Release 2\testData\requirementTabTestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFF4EAC-1377-4027-8ABF-48B991EF2176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
     <sheet name="tc002" sheetId="3" r:id="rId2"/>
     <sheet name="tc011" sheetId="4" r:id="rId3"/>
     <sheet name="tc012" sheetId="5" r:id="rId4"/>
+    <sheet name="tc019" sheetId="6" r:id="rId5"/>
+    <sheet name="tc020" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Project Name</t>
   </si>
@@ -67,26 +76,47 @@
     <t>Rq</t>
   </si>
   <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>pri1</t>
+  </si>
+  <si>
     <t>RQ-463</t>
   </si>
   <si>
-    <t>priority</t>
-  </si>
-  <si>
     <t>Must have</t>
   </si>
   <si>
-    <t>pri1</t>
-  </si>
-  <si>
     <t>Should have</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Epic 039</t>
+  </si>
+  <si>
+    <t>Hi, changing description</t>
+  </si>
+  <si>
+    <t>Mayukhjit Chakraborty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,16 +130,346 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -117,25 +477,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -413,25 +1059,25 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C2"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" customWidth="1"/>
+    <col min="1" max="1" width="32.725" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="23.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="23.9083333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.3666666666667" customWidth="1"/>
+    <col min="5" max="5" width="18.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -470,21 +1116,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.1833333333333" customWidth="1"/>
+    <col min="4" max="4" width="24.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -517,23 +1165,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018D6FBF-87E3-4965-9926-26DA875C70B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="28.08984375" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="28.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.1833333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.1833333333333" customWidth="1"/>
+    <col min="5" max="5" width="14.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -547,10 +1197,10 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -561,10 +1211,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -572,22 +1222,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A98A44B-A0FA-45FE-9B5B-68B8C5758F74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -609,10 +1261,95 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="23.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="24.8333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -1,29 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\TestNext Release 2\testData\requirementTabTestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFF4EAC-1377-4027-8ABF-48B991EF2176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
     <sheet name="tc002" sheetId="3" r:id="rId2"/>
     <sheet name="tc011" sheetId="4" r:id="rId3"/>
     <sheet name="tc012" sheetId="5" r:id="rId4"/>
+    <sheet name="tc010" sheetId="7" r:id="rId5"/>
+    <sheet name="tc017" sheetId="8" r:id="rId6"/>
+    <sheet name="naa" sheetId="9" r:id="rId7"/>
+    <sheet name="tc018" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>Project Name</t>
   </si>
@@ -67,31 +78,77 @@
     <t>Rq</t>
   </si>
   <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>pri1</t>
+  </si>
+  <si>
     <t>RQ-463</t>
   </si>
   <si>
-    <t>priority</t>
-  </si>
-  <si>
     <t>Must have</t>
   </si>
   <si>
-    <t>pri1</t>
-  </si>
-  <si>
     <t>Should have</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>moduleId</t>
+  </si>
+  <si>
+    <t>Epic 039</t>
+  </si>
+  <si>
+    <t>feature 039</t>
+  </si>
+  <si>
+    <t>RQF 12</t>
+  </si>
+  <si>
+    <t>feature 7</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>descri</t>
+  </si>
+  <si>
+    <t>Module 25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,16 +157,346 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -117,25 +504,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -413,25 +1087,25 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" customWidth="1"/>
+    <col min="1" max="1" width="32.725" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="23.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="23.9083333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.3666666666667" customWidth="1"/>
+    <col min="5" max="5" width="18.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -464,27 +1138,29 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.1833333333333" customWidth="1"/>
+    <col min="4" max="4" width="24.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -517,23 +1193,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018D6FBF-87E3-4965-9926-26DA875C70B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="28.08984375" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="28.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.1833333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.1833333333333" customWidth="1"/>
+    <col min="5" max="5" width="14.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -547,10 +1225,10 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -561,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -572,22 +1250,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A98A44B-A0FA-45FE-9B5B-68B8C5758F74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -609,10 +1289,211 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="13.1666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="30.9166666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="31.5833333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.8333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -1,29 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\TestNext Release 2\testData\requirementTabTestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFF4EAC-1377-4027-8ABF-48B991EF2176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18600" windowHeight="6800" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
     <sheet name="tc002" sheetId="3" r:id="rId2"/>
     <sheet name="tc011" sheetId="4" r:id="rId3"/>
     <sheet name="tc012" sheetId="5" r:id="rId4"/>
+    <sheet name="tc024" sheetId="8" r:id="rId5"/>
+    <sheet name="tc027" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Project Name</t>
   </si>
@@ -67,31 +76,90 @@
     <t>Rq</t>
   </si>
   <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>pri1</t>
+  </si>
+  <si>
     <t>RQ-463</t>
   </si>
   <si>
-    <t>priority</t>
-  </si>
-  <si>
     <t>Must have</t>
   </si>
   <si>
-    <t>pri1</t>
-  </si>
-  <si>
     <t>Should have</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Requirement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>New_rQ</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Functional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,16 +168,346 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -117,25 +515,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -413,25 +1098,25 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" customWidth="1"/>
+    <col min="1" max="1" width="32.725" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="23.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="23.9083333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.3666666666667" customWidth="1"/>
+    <col min="5" max="5" width="18.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -464,27 +1149,29 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.1833333333333" customWidth="1"/>
+    <col min="4" max="4" width="24.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -517,23 +1204,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018D6FBF-87E3-4965-9926-26DA875C70B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="28.08984375" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="28.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.1833333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.1833333333333" customWidth="1"/>
+    <col min="5" max="5" width="14.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -547,10 +1236,10 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -561,10 +1250,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -572,22 +1261,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A98A44B-A0FA-45FE-9B5B-68B8C5758F74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -609,10 +1300,134 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="tc007" r:id="rId3" sheetId="1"/>
+    <sheet name="tc022" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t/>
   </si>
@@ -45,6 +46,24 @@
   </si>
   <si>
     <t>Functional</t>
+  </si>
+  <si>
+    <t>MainProject</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>ModuleNamewithSpace</t>
+  </si>
+  <si>
+    <t>STG- PulseCodeOnAzureCloud</t>
+  </si>
+  <si>
+    <t>Module 123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           </t>
   </si>
 </sst>
 </file>
@@ -132,4 +151,39 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -4,15 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="6080"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
-    <sheet name="tc002" sheetId="3" r:id="rId2"/>
-    <sheet name="tc011" sheetId="4" r:id="rId3"/>
-    <sheet name="tc012" sheetId="5" r:id="rId4"/>
-    <sheet name="tc019" sheetId="6" r:id="rId5"/>
-    <sheet name="tc020" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Project Name</t>
   </si>
@@ -60,51 +55,6 @@
   <si>
     <t>MD-307</t>
   </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>hi,this is description</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Epic</t>
-  </si>
-  <si>
-    <t>Rq</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>pri1</t>
-  </si>
-  <si>
-    <t>RQ-463</t>
-  </si>
-  <si>
-    <t>Must have</t>
-  </si>
-  <si>
-    <t>Should have</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Epic 039</t>
-  </si>
-  <si>
-    <t>Hi, changing description</t>
-  </si>
-  <si>
-    <t>Mayukhjit Chakraborty</t>
-  </si>
 </sst>
 </file>
 
@@ -116,7 +66,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +79,13 @@
       <color rgb="FF101828"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -578,148 +535,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,17 +1024,17 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="32.725" customWidth="1"/>
+    <col min="1" max="1" width="32.7272727272727" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="23.9083333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.3666666666667" customWidth="1"/>
-    <col min="5" max="5" width="18.2666666666667" customWidth="1"/>
+    <col min="3" max="3" width="23.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="17.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="18.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1118,238 +1075,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="3" max="3" width="16.1833333333333" customWidth="1"/>
-    <col min="4" max="4" width="24.6333333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="28.0916666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.1833333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.1833333333333" customWidth="1"/>
-    <col min="5" max="5" width="14.5416666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="16.9083333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.9083333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="23.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="24.8333333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
     <sheet name="tc002" sheetId="3" r:id="rId2"/>
     <sheet name="tc011" sheetId="4" r:id="rId3"/>
     <sheet name="tc012" sheetId="5" r:id="rId4"/>
-    <sheet name="tc019" sheetId="6" r:id="rId5"/>
-    <sheet name="tc020" sheetId="7" r:id="rId6"/>
+    <sheet name="tc010" sheetId="7" r:id="rId5"/>
+    <sheet name="tc017" sheetId="8" r:id="rId6"/>
+    <sheet name="tc018" sheetId="10" r:id="rId7"/>
+    <sheet name="tc026" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>Project Name</t>
   </si>
@@ -91,19 +93,40 @@
     <t>Should have</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>project</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>moduleId</t>
+  </si>
+  <si>
+    <t>Epic 039</t>
+  </si>
+  <si>
+    <t>feature 039</t>
+  </si>
+  <si>
+    <t>RQF 12</t>
+  </si>
+  <si>
+    <t>feature 7</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>Epic 039</t>
-  </si>
-  <si>
-    <t>Hi, changing description</t>
-  </si>
-  <si>
-    <t>Mayukhjit Chakraborty</t>
+    <t>descri</t>
+  </si>
+  <si>
+    <t>Module 25</t>
+  </si>
+  <si>
+    <t>Module 27</t>
   </si>
 </sst>
 </file>
@@ -111,17 +134,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,151 +611,152 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,7 +765,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1068,7 +1099,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1110,7 +1141,7 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1232,7 +1263,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1276,43 +1307,40 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="23.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="24.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1324,28 +1352,134 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="30.9166666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="7"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="tc017" sheetId="8" r:id="rId6"/>
     <sheet name="tc018" sheetId="10" r:id="rId7"/>
     <sheet name="tc026" sheetId="12" r:id="rId8"/>
+    <sheet name="tc030" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <t>Project Name</t>
   </si>
@@ -127,6 +128,15 @@
   </si>
   <si>
     <t>Module 27</t>
+  </si>
+  <si>
+    <t>reqiName</t>
+  </si>
+  <si>
+    <t>Module 22</t>
+  </si>
+  <si>
+    <t>RQ-565</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1458,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
@@ -1486,4 +1496,49 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SohailShaikhFaiyaz\Desktop\UAT\testData\requirementTabTestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6080" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
-    <sheet name="tc032" sheetId="2" r:id="rId2"/>
-    <sheet name="tc033" sheetId="3" r:id="rId3"/>
+    <sheet name="tc029" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Project Name</t>
   </si>
@@ -49,26 +57,47 @@
     <t>MD-307</t>
   </si>
   <si>
-    <t>projectName</t>
-  </si>
-  <si>
-    <t>moduleName</t>
-  </si>
-  <si>
-    <t>Module Test</t>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Epic 2</t>
+  </si>
+  <si>
+    <t>fafddsdsds</t>
+  </si>
+  <si>
+    <t>Epic 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -77,30 +106,661 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,10 +769,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -247,7 +907,6 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -274,25 +933,24 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="25400" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -353,31 +1011,53 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="32.72727" customWidth="1"/>
+    <col min="1" max="1" width="32.725" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="23.90909" customWidth="1"/>
-    <col min="4" max="4" width="17.36364" customWidth="1"/>
-    <col min="5" max="5" width="18.27273" customWidth="1"/>
+    <col min="3" max="3" width="23.9083333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.3666666666667" customWidth="1"/>
+    <col min="5" max="5" width="18.275" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,7 +1074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -407,76 +1087,63 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="14.0833333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="22.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="29.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -4,11 +4,38 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
-    <sheet name="tc029" sheetId="2" r:id="rId2"/>
+    <sheet name="tc011" sheetId="6" r:id="rId2"/>
+    <sheet name="tc020" sheetId="26" r:id="rId3"/>
+    <sheet name="tc028" sheetId="23" r:id="rId4"/>
+    <sheet name="tc002" sheetId="2" r:id="rId5"/>
+    <sheet name="tc012" sheetId="7" r:id="rId6"/>
+    <sheet name="tc005" sheetId="3" r:id="rId7"/>
+    <sheet name="tc006" sheetId="4" r:id="rId8"/>
+    <sheet name="tc029" sheetId="27" r:id="rId9"/>
+    <sheet name="tc007" sheetId="5" r:id="rId10"/>
+    <sheet name="tc008" sheetId="8" r:id="rId11"/>
+    <sheet name="tc021" sheetId="17" r:id="rId12"/>
+    <sheet name="tc022" sheetId="18" r:id="rId13"/>
+    <sheet name="tc035" sheetId="24" r:id="rId14"/>
+    <sheet name="tc037" sheetId="25" r:id="rId15"/>
+    <sheet name="tc027" sheetId="28" r:id="rId16"/>
+    <sheet name="tc024" sheetId="29" r:id="rId17"/>
+    <sheet name="tc009" sheetId="9" r:id="rId18"/>
+    <sheet name="tc010" sheetId="10" r:id="rId19"/>
+    <sheet name="tc017" sheetId="15" r:id="rId20"/>
+    <sheet name="tc018" sheetId="16" r:id="rId21"/>
+    <sheet name="tc030" sheetId="19" r:id="rId22"/>
+    <sheet name="tc026" sheetId="20" r:id="rId23"/>
+    <sheet name="tc015" sheetId="11" r:id="rId24"/>
+    <sheet name="tc025" sheetId="14" r:id="rId25"/>
+    <sheet name="tc032" sheetId="21" r:id="rId26"/>
+    <sheet name="tc033" sheetId="22" r:id="rId27"/>
+    <sheet name="tc004" sheetId="13" r:id="rId28"/>
+    <sheet name="tc019" sheetId="12" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="69">
   <si>
     <t>Project Name</t>
   </si>
@@ -63,9 +90,57 @@
     <t>Epic</t>
   </si>
   <si>
+    <t>Rq</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>pri1</t>
+  </si>
+  <si>
+    <t>RQ-463</t>
+  </si>
+  <si>
+    <t>Must have</t>
+  </si>
+  <si>
+    <t>Should have</t>
+  </si>
+  <si>
+    <t>Rq1</t>
+  </si>
+  <si>
+    <t>c_desc</t>
+  </si>
+  <si>
+    <t>Rq12</t>
+  </si>
+  <si>
+    <t>RQ-466</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
+    <t>hi,this is description</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>moduleName</t>
+  </si>
+  <si>
+    <t>Epic 039</t>
+  </si>
+  <si>
     <t>Epic 2</t>
   </si>
   <si>
@@ -73,6 +148,120 @@
   </si>
   <si>
     <t>Epic 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirement </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>New_rQ</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Projectname</t>
+  </si>
+  <si>
+    <t>STG-PulseCodeOnAzureCloud</t>
+  </si>
+  <si>
+    <t>MainProjectName</t>
+  </si>
+  <si>
+    <t>SelecrModule</t>
+  </si>
+  <si>
+    <t>ModuleNamewithSpace</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Module 123</t>
+  </si>
+  <si>
+    <t>Rqname</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>reqId</t>
+  </si>
+  <si>
+    <t>feature 039</t>
+  </si>
+  <si>
+    <t>RQ-24</t>
+  </si>
+  <si>
+    <t>moduleId</t>
+  </si>
+  <si>
+    <t>RQF 12</t>
+  </si>
+  <si>
+    <t>feature 7</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>descri</t>
+  </si>
+  <si>
+    <t>Module 25</t>
+  </si>
+  <si>
+    <t>reqiName</t>
+  </si>
+  <si>
+    <t>Module 22</t>
+  </si>
+  <si>
+    <t>RQ-565</t>
+  </si>
+  <si>
+    <t>Module 27</t>
+  </si>
+  <si>
+    <t>Module Test</t>
+  </si>
+  <si>
+    <t>RQ-437</t>
+  </si>
+  <si>
+    <t>Hi, changing description</t>
+  </si>
+  <si>
+    <t>Mayukhjit Chakraborty</t>
   </si>
 </sst>
 </file>
@@ -85,7 +274,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,11 +286,16 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="8.25"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8.2"/>
       <color rgb="FF101828"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -569,140 +763,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1042,36 +1237,608 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="20.2833333333333" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="32.725" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="23.9083333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.3666666666667" customWidth="1"/>
-    <col min="5" max="5" width="18.275" customWidth="1"/>
+    <col min="1" max="1" width="12.2833333333333" customWidth="1"/>
+    <col min="2" max="2" width="10.7083333333333" customWidth="1"/>
+    <col min="3" max="3" width="9.85833333333333" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="26.7083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="39.4166666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.7083333333333" customWidth="1"/>
+    <col min="3" max="3" width="21.2833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="35.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.8583333333333" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="10.7083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="37.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="18.8583333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.7083333333333" customWidth="1"/>
+    <col min="4" max="4" width="23.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="23.7083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1082,36 +1849,693 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="28.425" customWidth="1"/>
+    <col min="2" max="2" width="18.575" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.1333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="37.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.8583333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.2833333333333" customWidth="1"/>
+    <col min="2" max="2" width="18.425" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="39.575" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="16.7083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="33.8583333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="32.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.7083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.0833333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="22.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="29.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="30.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.2833333333333" customWidth="1"/>
+    <col min="3" max="3" width="29.425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1121,11 +2545,11 @@
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1135,15 +2559,15 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="8" activeTab="12"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="tc033" sheetId="22" r:id="rId27"/>
     <sheet name="tc004" sheetId="13" r:id="rId28"/>
     <sheet name="tc019" sheetId="12" r:id="rId29"/>
+    <sheet name="tc036" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="68">
   <si>
     <t>Project Name</t>
   </si>
@@ -193,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Module 123</t>
   </si>
   <si>
     <t>Rqname</t>
@@ -1359,7 +1357,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1475,8 +1473,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1556,8 +1554,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.8583333333333" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1575,10 +1573,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1666,7 +1664,7 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
@@ -1723,19 +1721,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1746,13 +1744,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1774,16 +1772,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1794,10 +1792,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1877,13 +1875,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1894,7 +1892,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1909,26 +1907,26 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1939,10 +1937,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1967,16 +1965,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1987,10 +1985,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2012,16 +2010,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2032,7 +2030,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -2087,7 +2085,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2146,7 +2144,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2183,7 +2181,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2205,7 +2203,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -2213,7 +2211,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -2247,7 +2245,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2258,10 +2256,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2299,6 +2297,39 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2491,7 +2522,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="14" activeTab="14"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="69">
   <si>
     <t>Project Name</t>
   </si>
@@ -100,36 +100,42 @@
     <t>pri1</t>
   </si>
   <si>
+    <t>Epic 039</t>
+  </si>
+  <si>
+    <t>RQ-443</t>
+  </si>
+  <si>
+    <t>Must have</t>
+  </si>
+  <si>
+    <t>Should have</t>
+  </si>
+  <si>
+    <t>Rq1</t>
+  </si>
+  <si>
+    <t>c_desc</t>
+  </si>
+  <si>
+    <t>Rq12</t>
+  </si>
+  <si>
+    <t>RQ-466</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>hi,this is description</t>
+  </si>
+  <si>
     <t>RQ-463</t>
   </si>
   <si>
-    <t>Must have</t>
-  </si>
-  <si>
-    <t>Should have</t>
-  </si>
-  <si>
-    <t>Rq1</t>
-  </si>
-  <si>
-    <t>c_desc</t>
-  </si>
-  <si>
-    <t>Rq12</t>
-  </si>
-  <si>
-    <t>RQ-466</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>hi,this is description</t>
-  </si>
-  <si>
     <t>ProjectName</t>
   </si>
   <si>
@@ -137,9 +143,6 @@
   </si>
   <si>
     <t>moduleName</t>
-  </si>
-  <si>
-    <t>Epic 039</t>
   </si>
   <si>
     <t>Epic 2</t>
@@ -1313,7 +1316,58 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
@@ -1327,79 +1381,28 @@
       <c r="E1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="F2" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1424,42 +1427,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1486,13 +1489,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1500,10 +1503,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1529,10 +1532,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1540,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1554,8 +1557,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.8583333333333" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1565,10 +1568,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1576,7 +1579,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1604,16 +1607,16 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1621,19 +1624,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1664,19 +1667,19 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
         <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1684,22 +1687,22 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1721,19 +1724,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1741,16 +1744,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1772,16 +1775,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1789,13 +1792,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1809,8 +1812,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1844,16 +1847,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1875,13 +1878,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1889,10 +1892,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1914,19 +1917,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1934,16 +1937,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1965,16 +1968,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1982,13 +1985,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2010,16 +2013,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2027,13 +2030,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2048,7 +2051,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2059,10 +2062,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2096,10 +2099,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2107,7 +2110,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2133,10 +2136,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2144,7 +2147,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2170,10 +2173,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2181,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2203,18 +2206,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2242,10 +2245,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2256,10 +2259,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2314,10 +2317,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2325,7 +2328,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2356,13 +2359,13 @@
         <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2373,16 +2376,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2427,7 +2430,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2477,7 +2480,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2505,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2533,10 +2536,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2544,7 +2547,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2577,10 +2580,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2591,10 +2594,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -1302,8 +1302,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1812,8 +1812,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>

--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="71">
   <si>
     <t/>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>STG- PulseCodeOnAzureCloude</t>
+  </si>
+  <si>
+    <t>SelectModule</t>
   </si>
   <si>
     <t>Rqname</t>
@@ -560,7 +566,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>15</v>
@@ -610,15 +616,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>32</v>
@@ -701,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>34</v>
@@ -754,19 +760,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s" s="0">
         <v>51</v>
       </c>
+      <c r="B1" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>53</v>
+      </c>
       <c r="D1" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -777,13 +783,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -848,110 +854,110 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s" s="0">
         <v>51</v>
       </c>
+      <c r="B1" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>53</v>
+      </c>
       <c r="D1" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>56</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>61</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>59</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>61</v>
+      </c>
       <c r="E2" t="s" s="0">
         <v>24</v>
       </c>
@@ -971,13 +977,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s" s="0">
         <v>51</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>53</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>62</v>
@@ -991,48 +1038,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>24</v>
@@ -1122,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1157,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +1175,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>24</v>
@@ -1177,7 +1183,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>34</v>
@@ -1236,7 +1242,7 @@
         <v>34</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
@@ -1247,10 +1253,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48E0F2B1-88C7-470D-BC6C-79C02EA36E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE38457A-99CE-4296-929A-A520D1CC5F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE38457A-99CE-4296-929A-A520D1CC5F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C28420-2C6C-4822-9A27-E02058A1D78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C28420-2C6C-4822-9A27-E02058A1D78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB3D1B21-C689-4DFD-A566-4A211FA9E223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29501"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB3D1B21-C689-4DFD-A566-4A211FA9E223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B8476CF-EF51-4F81-AF8A-3E9D45B800C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="67">
   <si>
     <t>Project Name</t>
   </si>
@@ -77,7 +77,7 @@
     <t>Module Id</t>
   </si>
   <si>
-    <t>STG- PulseCodeOnAzureCloud</t>
+    <t>STG- PulseCodeOnAzureCloude</t>
   </si>
   <si>
     <t>Epic Mohit</t>
@@ -116,9 +116,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>STG- PulseCodeOnAzureCloude</t>
-  </si>
-  <si>
     <t>hi,this is description</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
   </si>
   <si>
     <t>Projectname</t>
-  </si>
-  <si>
-    <t>STG-PulseCodeOnAzureCloud</t>
   </si>
   <si>
     <t>project</t>
@@ -673,13 +667,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -738,45 +730,48 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -788,25 +783,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8911F113-D9E9-4D95-B104-6502D772C745}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -814,16 +811,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -835,9 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3E68E9-6114-4137-93A6-9E3D35854EF2}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -859,10 +854,10 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -870,16 +865,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -902,42 +897,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -955,20 +950,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -976,10 +971,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +987,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1002,18 +997,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1021,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1037,10 +1032,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1048,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1071,18 +1066,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1090,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15"/>
@@ -1108,16 +1103,16 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1125,19 +1120,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1145,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1166,19 +1161,19 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1186,22 +1181,22 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1216,6 +1211,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1243,23 +1241,23 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1267,13 +1265,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1286,20 +1284,20 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1307,10 +1305,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1323,26 +1321,26 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1350,13 +1348,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
@@ -1371,22 +1369,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29E5669-D6FB-40EE-905B-49DC274A1C27}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1394,13 +1394,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1413,23 +1413,23 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1437,10 +1437,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1467,10 +1467,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1502,10 +1502,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1513,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1526,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1537,10 +1537,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1561,7 +1561,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1572,10 +1572,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1603,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1626,9 +1626,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEF2594-B7B7-40EF-9BFC-A865F0ACD5B2}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
@@ -1679,11 +1682,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B43113-6F27-479A-A110-742EB7551220}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -1693,10 +1699,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1707,10 +1713,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1722,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8608B23C-4D98-43D6-A740-8ABC6DE5C5DD}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1750,7 +1756,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1759,7 +1765,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1813,7 +1819,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1836,7 +1842,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1865,10 +1871,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1876,7 +1882,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1889,7 +1895,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1909,7 +1915,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1920,10 +1926,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1935,9 +1941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE237852-F036-4561-9C07-3E234A38E9FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1949,37 +1953,37 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB3D1B21-C689-4DFD-A566-4A211FA9E223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64C8173B-CBBD-4E99-B5A5-B3A7E4C6994D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="67">
   <si>
     <t>Project Name</t>
   </si>
@@ -77,7 +77,7 @@
     <t>Module Id</t>
   </si>
   <si>
-    <t>STG- PulseCodeOnAzureCloud</t>
+    <t>STG- PulseCodeOnAzureCloude</t>
   </si>
   <si>
     <t>Epic Mohit</t>
@@ -116,9 +116,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>STG- PulseCodeOnAzureCloude</t>
-  </si>
-  <si>
     <t>hi,this is description</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
   </si>
   <si>
     <t>Projectname</t>
-  </si>
-  <si>
-    <t>STG-PulseCodeOnAzureCloud</t>
   </si>
   <si>
     <t>project</t>
@@ -674,12 +668,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -734,49 +728,52 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -788,25 +785,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8911F113-D9E9-4D95-B104-6502D772C745}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -814,16 +813,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +835,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -859,10 +858,10 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -870,16 +869,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -902,42 +901,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -950,25 +949,25 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -976,10 +975,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +991,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1002,18 +1001,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1025,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1037,10 +1036,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1048,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1061,7 +1060,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15"/>
@@ -1071,18 +1070,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1094,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15"/>
@@ -1108,16 +1107,16 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1125,19 +1124,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1149,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1166,19 +1165,19 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1186,22 +1185,22 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1216,6 +1215,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1243,23 +1245,23 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1267,13 +1269,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1286,20 +1288,20 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1307,10 +1309,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1323,26 +1325,26 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1350,13 +1352,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
@@ -1371,22 +1373,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29E5669-D6FB-40EE-905B-49DC274A1C27}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1394,13 +1398,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1413,23 +1417,23 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1437,10 +1441,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1467,10 +1471,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1491,7 +1495,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1502,10 +1506,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1513,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1530,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1537,10 +1541,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1548,7 +1552,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1572,10 +1576,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1583,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1607,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -1611,10 +1615,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1626,9 +1630,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEF2594-B7B7-40EF-9BFC-A865F0ACD5B2}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
@@ -1680,10 +1689,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -1693,10 +1705,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1707,10 +1719,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8608B23C-4D98-43D6-A740-8ABC6DE5C5DD}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1750,7 +1762,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1759,7 +1771,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1784,7 +1796,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1813,7 +1825,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1826,7 +1838,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1836,7 +1848,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1854,7 +1866,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1865,10 +1877,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1876,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1888,12 +1900,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E6EE4-5435-41BC-8AD6-B776B53E8FC7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
   </cols>
@@ -1909,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1920,10 +1933,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1935,9 +1948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE237852-F036-4561-9C07-3E234A38E9FA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1949,37 +1960,37 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testData/requirementTabTestData/requirementTab_testData.xlsx
+++ b/testData/requirementTabTestData/requirementTab_testData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64C8173B-CBBD-4E99-B5A5-B3A7E4C6994D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4B21505-7EC7-4470-B75B-E81D0B91C8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="69">
   <si>
     <t>Project Name</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>MD-307</t>
+  </si>
+  <si>
+    <t>Mohit Feature</t>
+  </si>
+  <si>
+    <t>MD-315</t>
   </si>
   <si>
     <t>Project</t>
@@ -667,14 +673,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -695,7 +704,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -712,11 +721,21 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -738,22 +757,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -761,19 +780,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -793,19 +812,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -813,16 +832,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -849,19 +868,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -869,16 +888,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -901,22 +920,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -924,19 +943,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -961,13 +980,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -975,10 +994,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1001,10 +1020,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1012,7 +1031,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1036,10 +1055,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1047,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1070,10 +1089,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1081,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1101,22 +1120,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1124,19 +1143,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1159,25 +1178,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1185,22 +1204,22 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1231,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710D6ACC-846B-479B-9D45-4664C5AACF8A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1221,10 +1242,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1252,16 +1273,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1269,13 +1290,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1295,13 +1316,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1309,10 +1330,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1332,19 +1353,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1352,16 +1373,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1381,16 +1402,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1398,13 +1419,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1424,16 +1445,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1441,13 +1462,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1471,10 +1492,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1506,10 +1527,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1517,7 +1538,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1541,10 +1562,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1552,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1576,10 +1597,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1587,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1607,18 +1628,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1641,22 +1662,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1667,16 +1688,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1705,10 +1726,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1719,10 +1740,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1771,7 +1792,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1808,13 +1829,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1825,7 +1846,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1848,7 +1869,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1877,10 +1898,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1888,7 +1909,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1900,7 +1921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E6EE4-5435-41BC-8AD6-B776B53E8FC7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1913,16 +1934,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1933,10 +1954,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1960,36 +1981,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
